--- a/data_processed/20250725/BTCUSDVOLSURFACE_20250725.xlsx
+++ b/data_processed/20250725/BTCUSDVOLSURFACE_20250725.xlsx
@@ -6649,7 +6649,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250725/BTCUSDVOLSURFACE_20250725.xlsx
+++ b/data_processed/20250725/BTCUSDVOLSURFACE_20250725.xlsx
@@ -686,7 +686,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6620,7 +6620,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6736,7 +6736,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6968,7 +6968,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40138,7 +40138,7 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
